--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 12,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 14,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,3; 3,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 20,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,17; 104,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,45; 170,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,68; 26,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,79; 140,88</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 6,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 10,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 10,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,7; 52,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 59,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,15; 89,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,49; 19,7</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 8,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 5,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 74,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 52,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,8; 42,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 40,76</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 7,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 6,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 8,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 28,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 70,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 53,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 66,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,6; 155,08</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 7,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 8,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 5,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 6,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,8; 70,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 51,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; 37,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 36,91</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 5,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 6,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 4,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 11,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,09; 48,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,42; 39,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 34,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 59,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,67</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,99%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,2%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 12,85</t>
+          <t>-1,6; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 14,77</t>
+          <t>0,81; 9,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 3,66</t>
+          <t>0,16; 8,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 20,35</t>
+          <t>-1,3; 6,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 104,57</t>
+          <t>-10,1; 47,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 170,66</t>
+          <t>3,82; 58,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,68; 26,16</t>
+          <t>0,79; 65,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 140,88</t>
+          <t>-5,36; 33,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>40,37%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,39</t>
+          <t>1,82; 8,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,63</t>
+          <t>0,4; 7,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,77</t>
+          <t>-0,92; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,88</t>
+          <t>0,78; 12,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 52,12</t>
+          <t>12,99; 74,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 59,71</t>
+          <t>2,34; 52,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 89,06</t>
+          <t>-5,8; 42,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 19,7</t>
+          <t>4,34; 176,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>77,42%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,53</t>
+          <t>0,18; 7,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,09</t>
+          <t>-1,0; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,51</t>
+          <t>-0,11; 8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,76</t>
+          <t>-4,56; 43,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 74,39</t>
+          <t>0,74; 70,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 52,96</t>
+          <t>-6,05; 53,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 42,22</t>
+          <t>-0,64; 66,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 40,76</t>
+          <t>-22,39; 244,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,79</t>
+          <t>0,82; 7,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,85</t>
+          <t>1,0; 8,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,36</t>
+          <t>-1,48; 5,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 28,83</t>
+          <t>-2,06; 6,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 70,4</t>
+          <t>5,8; 70,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 53,72</t>
+          <t>4,56; 51,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 66,97</t>
+          <t>-9,0; 37,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 155,08</t>
+          <t>-9,12; 33,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>39,12%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,22</t>
+          <t>2,31; 5,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,48</t>
+          <t>2,18; 6,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,18</t>
+          <t>1,03; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,95</t>
+          <t>1,44; 20,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 70,6</t>
+          <t>17,09; 48,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 51,22</t>
+          <t>12,42; 39,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 37,8</t>
+          <t>6,48; 34,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 36,91</t>
+          <t>7,12; 135,21</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,05</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>32,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,65%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 5,82</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 6,19</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 4,79</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 11,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 48,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,42; 39,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 34,14</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 59,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,06</t>
+          <t>-1,44; 5,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,64</t>
+          <t>0,51; 9,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,55</t>
+          <t>0,47; 8,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,12</t>
+          <t>-1,44; 6,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 47,54</t>
+          <t>-9,4; 46,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 58,49</t>
+          <t>2,31; 56,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 65,71</t>
+          <t>2,45; 63,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 33,14</t>
+          <t>-6,22; 32,48</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,53</t>
+          <t>1,72; 8,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,09</t>
+          <t>0,66; 7,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,51</t>
+          <t>-1,08; 5,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 12,42</t>
+          <t>0,87; 11,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,99; 74,39</t>
+          <t>11,79; 75,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 52,96</t>
+          <t>4,01; 54,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 42,22</t>
+          <t>-7,18; 44,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 176,92</t>
+          <t>4,67; 160,84</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,79</t>
+          <t>0,32; 7,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,85</t>
+          <t>-1,49; 6,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 8,36</t>
+          <t>0,05; 8,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 43,32</t>
+          <t>-4,64; 47,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 70,4</t>
+          <t>2,01; 71,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 53,72</t>
+          <t>-9,03; 51,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 66,97</t>
+          <t>0,13; 65,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 244,72</t>
+          <t>-22,49; 276,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,22</t>
+          <t>1,29; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,48</t>
+          <t>1,41; 9,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 5,18</t>
+          <t>-1,67; 5,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,09</t>
+          <t>-2,43; 5,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 70,6</t>
+          <t>10,03; 69,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 51,22</t>
+          <t>6,67; 56,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 37,8</t>
+          <t>-9,94; 39,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 33,0</t>
+          <t>-10,92; 29,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,82</t>
+          <t>2,28; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,19</t>
+          <t>2,25; 6,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,79</t>
+          <t>1,2; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 20,57</t>
+          <t>1,57; 23,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 48,49</t>
+          <t>17,1; 47,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 39,26</t>
+          <t>12,74; 39,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 34,14</t>
+          <t>7,09; 33,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 135,21</t>
+          <t>8,5; 150,83</t>
         </is>
       </c>
     </row>
